--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H2">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I2">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J2">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>1372.201987317902</v>
+        <v>1372.289305848859</v>
       </c>
       <c r="R2">
-        <v>1372.201987317902</v>
+        <v>5489.157223395436</v>
       </c>
       <c r="S2">
-        <v>0.02504736908013749</v>
+        <v>0.02321911763049504</v>
       </c>
       <c r="T2">
-        <v>0.02504736908013749</v>
+        <v>0.01287323584064696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H3">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I3">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J3">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>928.6134055016299</v>
+        <v>990.28873632174</v>
       </c>
       <c r="R3">
-        <v>928.6134055016299</v>
+        <v>5941.732417930441</v>
       </c>
       <c r="S3">
-        <v>0.01695036366025473</v>
+        <v>0.01675567284449948</v>
       </c>
       <c r="T3">
-        <v>0.01695036366025473</v>
+        <v>0.0139346204900143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H4">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I4">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J4">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>700.5722669463635</v>
+        <v>704.8500697644976</v>
       </c>
       <c r="R4">
-        <v>700.5722669463635</v>
+        <v>4229.100418586985</v>
       </c>
       <c r="S4">
-        <v>0.01278783466260123</v>
+        <v>0.01192605423067184</v>
       </c>
       <c r="T4">
-        <v>0.01278783466260123</v>
+        <v>0.00991813585703283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H5">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I5">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J5">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>658.7125757475171</v>
+        <v>664.0237830468625</v>
       </c>
       <c r="R5">
-        <v>658.7125757475171</v>
+        <v>3984.142698281175</v>
       </c>
       <c r="S5">
-        <v>0.01202375244676985</v>
+        <v>0.011235273977796</v>
       </c>
       <c r="T5">
-        <v>0.01202375244676985</v>
+        <v>0.009343658141028674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H6">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I6">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J6">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>967.8309660937771</v>
+        <v>1015.04468564547</v>
       </c>
       <c r="R6">
-        <v>967.8309660937771</v>
+        <v>6090.268113872819</v>
       </c>
       <c r="S6">
-        <v>0.01766621797591139</v>
+        <v>0.01717454319272149</v>
       </c>
       <c r="T6">
-        <v>0.01766621797591139</v>
+        <v>0.01428296814463624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H7">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I7">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J7">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>1163.682841975145</v>
+        <v>1166.592534861754</v>
       </c>
       <c r="R7">
-        <v>1163.682841975145</v>
+        <v>4666.370139447015</v>
       </c>
       <c r="S7">
-        <v>0.02124118307986545</v>
+        <v>0.01973873087720162</v>
       </c>
       <c r="T7">
-        <v>0.02124118307986545</v>
+        <v>0.01094362593019256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H8">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I8">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J8">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>9760.032377494001</v>
+        <v>10442.18895674641</v>
       </c>
       <c r="R8">
-        <v>9760.032377494001</v>
+        <v>62653.13374047849</v>
       </c>
       <c r="S8">
-        <v>0.1781538982252971</v>
+        <v>0.1766817045597928</v>
       </c>
       <c r="T8">
-        <v>0.1781538982252971</v>
+        <v>0.1469348633992792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H9">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I9">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J9">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>6604.929148649565</v>
+        <v>7535.424244971963</v>
       </c>
       <c r="R9">
-        <v>6604.929148649565</v>
+        <v>67818.81820474767</v>
       </c>
       <c r="S9">
-        <v>0.1205624971129391</v>
+        <v>0.1274992825448416</v>
       </c>
       <c r="T9">
-        <v>0.1205624971129391</v>
+        <v>0.159049487134864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H10">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I10">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J10">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>4982.945711611761</v>
+        <v>5363.429987603075</v>
       </c>
       <c r="R10">
-        <v>4982.945711611761</v>
+        <v>48270.86988842767</v>
       </c>
       <c r="S10">
-        <v>0.09095576416485182</v>
+        <v>0.09074916728877887</v>
       </c>
       <c r="T10">
-        <v>0.09095576416485182</v>
+        <v>0.1132054096862854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H11">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I11">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J11">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>4685.21116145913</v>
+        <v>5052.769692801648</v>
       </c>
       <c r="R11">
-        <v>4685.21116145913</v>
+        <v>45474.92723521483</v>
       </c>
       <c r="S11">
-        <v>0.08552109256802812</v>
+        <v>0.08549279904530802</v>
       </c>
       <c r="T11">
-        <v>0.08552109256802812</v>
+        <v>0.1066483322139318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H12">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I12">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J12">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>6883.871071692424</v>
+        <v>7723.800194227155</v>
       </c>
       <c r="R12">
-        <v>6883.871071692424</v>
+        <v>69514.20174804439</v>
       </c>
       <c r="S12">
-        <v>0.1256541391328097</v>
+        <v>0.13068660121436</v>
       </c>
       <c r="T12">
-        <v>0.1256541391328097</v>
+        <v>0.1630255204866123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H13">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I13">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J13">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>8276.902613303393</v>
+        <v>8876.976328997123</v>
       </c>
       <c r="R13">
-        <v>8276.902613303393</v>
+        <v>53261.85797398274</v>
       </c>
       <c r="S13">
-        <v>0.1510817186622652</v>
+        <v>0.1501983267723616</v>
       </c>
       <c r="T13">
-        <v>0.1510817186622652</v>
+        <v>0.1249103334274688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H14">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I14">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J14">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>609.0417688732711</v>
+        <v>3.325228891362333</v>
       </c>
       <c r="R14">
-        <v>609.0417688732711</v>
+        <v>19.951373348174</v>
       </c>
       <c r="S14">
-        <v>0.01111709071344936</v>
+        <v>5.626283062018283E-05</v>
       </c>
       <c r="T14">
-        <v>0.01111709071344936</v>
+        <v>4.67901945604992E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H15">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I15">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J15">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>412.1582364062841</v>
+        <v>2.399593659130666</v>
       </c>
       <c r="R15">
-        <v>412.1582364062841</v>
+        <v>21.596342932176</v>
       </c>
       <c r="S15">
-        <v>0.007523294356150122</v>
+        <v>4.06010942439578E-05</v>
       </c>
       <c r="T15">
-        <v>0.007523294356150122</v>
+        <v>5.064799650417349E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H16">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I16">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J16">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>310.943852747621</v>
+        <v>1.707940013866</v>
       </c>
       <c r="R16">
-        <v>310.943852747621</v>
+        <v>15.371460124794</v>
       </c>
       <c r="S16">
-        <v>0.005675786447586042</v>
+        <v>2.88983233482632E-05</v>
       </c>
       <c r="T16">
-        <v>0.005675786447586042</v>
+        <v>3.604932840294388E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H17">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I17">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J17">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>292.3647364018814</v>
+        <v>1.609012806941111</v>
       </c>
       <c r="R17">
-        <v>292.3647364018814</v>
+        <v>14.48111526247</v>
       </c>
       <c r="S17">
-        <v>0.005336654170708832</v>
+        <v>2.722447626320961E-05</v>
       </c>
       <c r="T17">
-        <v>0.005336654170708832</v>
+        <v>3.396128119902078E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H18">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I18">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J18">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>429.5646624971118</v>
+        <v>2.459580425458666</v>
       </c>
       <c r="R18">
-        <v>429.5646624971118</v>
+        <v>22.136223829128</v>
       </c>
       <c r="S18">
-        <v>0.007841021033922447</v>
+        <v>4.161606956855328E-05</v>
       </c>
       <c r="T18">
-        <v>0.007841021033922447</v>
+        <v>5.191413150987187E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H19">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I19">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J19">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>516.4920784507096</v>
+        <v>2.826799848134333</v>
       </c>
       <c r="R19">
-        <v>516.4920784507096</v>
+        <v>16.960799088806</v>
       </c>
       <c r="S19">
-        <v>0.009427743025797812</v>
+        <v>4.782941753750399E-05</v>
       </c>
       <c r="T19">
-        <v>0.009427743025797812</v>
+        <v>3.977666476475428E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H20">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I20">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J20">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>1238.713933770567</v>
+        <v>617.6655730091315</v>
       </c>
       <c r="R20">
-        <v>1238.713933770567</v>
+        <v>3705.993438054789</v>
       </c>
       <c r="S20">
-        <v>0.02261075655815412</v>
+        <v>0.01045089365258502</v>
       </c>
       <c r="T20">
-        <v>0.02261075655815412</v>
+        <v>0.008691339236674018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H21">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I21">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J21">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>838.277728142159</v>
+        <v>445.727629850104</v>
       </c>
       <c r="R21">
-        <v>838.277728142159</v>
+        <v>4011.548668650937</v>
       </c>
       <c r="S21">
-        <v>0.01530142926660217</v>
+        <v>0.007541705837494282</v>
       </c>
       <c r="T21">
-        <v>0.01530142926660217</v>
+        <v>0.009407930943874987</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H22">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I22">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J22">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>632.4204721317357</v>
+        <v>317.252069495151</v>
       </c>
       <c r="R22">
-        <v>632.4204721317357</v>
+        <v>2855.26862545636</v>
       </c>
       <c r="S22">
-        <v>0.01154383183067682</v>
+        <v>0.005367900987590446</v>
       </c>
       <c r="T22">
-        <v>0.01154383183067682</v>
+        <v>0.006696209437623474</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H23">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I23">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J23">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>594.6328991427954</v>
+        <v>298.8762126901717</v>
       </c>
       <c r="R23">
-        <v>594.6328991427954</v>
+        <v>2689.885914211545</v>
       </c>
       <c r="S23">
-        <v>0.01085407966879094</v>
+        <v>0.005056981723775283</v>
       </c>
       <c r="T23">
-        <v>0.01085407966879094</v>
+        <v>0.006308351965305864</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H24">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I24">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J24">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>873.6801974600595</v>
+        <v>456.870249383212</v>
       </c>
       <c r="R24">
-        <v>873.6801974600595</v>
+        <v>4111.832244448909</v>
       </c>
       <c r="S24">
-        <v>0.0159476451470258</v>
+        <v>0.007730238818512485</v>
       </c>
       <c r="T24">
-        <v>0.0159476451470258</v>
+        <v>0.009643117160930021</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.753043</v>
+      </c>
+      <c r="H25">
+        <v>11.259129</v>
+      </c>
+      <c r="I25">
+        <v>0.04503209727048742</v>
+      </c>
+      <c r="J25">
+        <v>0.04813551573843818</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>525.0817327238735</v>
+      </c>
+      <c r="R25">
+        <v>3150.490396343242</v>
+      </c>
+      <c r="S25">
+        <v>0.008884376250529907</v>
+      </c>
+      <c r="T25">
+        <v>0.007388566994029814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.7814465</v>
+      </c>
+      <c r="H26">
+        <v>15.562893</v>
+      </c>
+      <c r="I26">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J26">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>1280.649225511778</v>
+      </c>
+      <c r="R26">
+        <v>5122.596902047113</v>
+      </c>
+      <c r="S26">
+        <v>0.02166856863477981</v>
+      </c>
+      <c r="T26">
+        <v>0.01201357427977416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.7814465</v>
+      </c>
+      <c r="H27">
+        <v>15.562893</v>
+      </c>
+      <c r="I27">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J27">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>924.1582644404519</v>
+      </c>
+      <c r="R27">
+        <v>5544.949586642712</v>
+      </c>
+      <c r="S27">
+        <v>0.01563674609995128</v>
+      </c>
+      <c r="T27">
+        <v>0.01300408074469307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.7814465</v>
+      </c>
+      <c r="H28">
+        <v>15.562893</v>
+      </c>
+      <c r="I28">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J28">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>657.7809009358006</v>
+      </c>
+      <c r="R28">
+        <v>3946.685405614804</v>
+      </c>
+      <c r="S28">
+        <v>0.01112964449174503</v>
+      </c>
+      <c r="T28">
+        <v>0.009255812859353887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.7814465</v>
+      </c>
+      <c r="H29">
+        <v>15.562893</v>
+      </c>
+      <c r="I29">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J29">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>619.6809520091275</v>
+      </c>
+      <c r="R29">
+        <v>3718.085712054765</v>
+      </c>
+      <c r="S29">
+        <v>0.01048499383967494</v>
+      </c>
+      <c r="T29">
+        <v>0.008719698179352493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.526875094809</v>
-      </c>
-      <c r="H25">
-        <v>7.526875094809</v>
-      </c>
-      <c r="I25">
-        <v>0.0954325794806538</v>
-      </c>
-      <c r="J25">
-        <v>0.0954325794806538</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>1050.479567998465</v>
-      </c>
-      <c r="R25">
-        <v>1050.479567998465</v>
-      </c>
-      <c r="S25">
-        <v>0.01917483700940394</v>
-      </c>
-      <c r="T25">
-        <v>0.01917483700940394</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.7814465</v>
+      </c>
+      <c r="H30">
+        <v>15.562893</v>
+      </c>
+      <c r="I30">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J30">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>947.2610367153059</v>
+      </c>
+      <c r="R30">
+        <v>5683.566220291836</v>
+      </c>
+      <c r="S30">
+        <v>0.01602764471349732</v>
+      </c>
+      <c r="T30">
+        <v>0.0133291660981962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.7814465</v>
+      </c>
+      <c r="H31">
+        <v>15.562893</v>
+      </c>
+      <c r="I31">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J31">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>1088.688675114599</v>
+      </c>
+      <c r="R31">
+        <v>4354.754700458398</v>
+      </c>
+      <c r="S31">
+        <v>0.01842059855945404</v>
+      </c>
+      <c r="T31">
+        <v>0.01021282175125781</v>
       </c>
     </row>
   </sheetData>
